--- a/rolar_opcoes_ITSA4_ITSAG113_ITSAH118.xlsx
+++ b/rolar_opcoes_ITSA4_ITSAG113_ITSAH118.xlsx
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>11.54</v>
+        <v>11.26</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="F3" t="n">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -572,13 +572,13 @@
         <v>11.79</v>
       </c>
       <c r="D4" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="G4" t="n">
         <v>0.5299999999999994</v>
@@ -587,13 +587,13 @@
         <v>4.706927175843689</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4499999999999993</v>
+        <v>0.5099999999999993</v>
       </c>
       <c r="J4" t="n">
-        <v>3.996447602131433</v>
+        <v>4.529307282415624</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.08000000000000002</v>
+        <v>-0.02000000000000002</v>
       </c>
     </row>
   </sheetData>
